--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -22,26 +22,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴隔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗大理石台面和门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>厨卫砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋浴隔断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交房费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物业装修费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,135 +170,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
+    <t>洗菜盆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蹲便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾缝剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘窗大理石台面和门槛石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -228,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +253,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,7 +561,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -550,28 +575,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -590,131 +615,137 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="6" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>4429</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>4429</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
-        <v>5500</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>3340</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>3340</v>
+      </c>
+      <c r="G4" s="5">
         <v>1500</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>3340</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
-        <v>2915</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2">
+    <row r="5" spans="1:8" s="6" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>3113</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>3113</v>
+      </c>
+      <c r="G5" s="5">
         <v>1000</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="2">
         <v>350</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2">
+    <row r="7" spans="1:8" s="6" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>9162</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>9162</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>9162</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
         <v>589</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>589</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>589</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>2749</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>2749</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -728,49 +759,51 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2">
+    <row r="11" spans="1:8" s="6" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
         <v>6300</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
         <v>1300</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <v>120</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
         <v>120</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
-        <v>6000</v>
+        <v>5850</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>5850</v>
+      </c>
       <c r="G13" s="2">
         <v>500</v>
       </c>
@@ -778,12 +811,12 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2">
-        <v>13000</v>
+        <v>12725</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -798,7 +831,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -814,7 +847,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -828,7 +861,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>80</v>
@@ -844,7 +877,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -858,7 +891,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -872,7 +905,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -884,27 +917,27 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
+    <row r="21" spans="1:8" s="6" customFormat="1">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <v>300</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>300</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>300</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -918,7 +951,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -932,7 +965,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -948,7 +981,7 @@
     </row>
     <row r="25" spans="1:8" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -964,7 +997,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>130</v>
@@ -982,7 +1015,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -996,7 +1029,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1006,23 +1039,27 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+    <row r="29" spans="1:8" s="6" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>54</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1036,7 +1073,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1050,7 +1087,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>4800</v>
@@ -1068,7 +1105,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>140</v>
@@ -1084,23 +1121,23 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
+    <row r="34" spans="1:8" s="6" customFormat="1">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
         <v>400</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <v>400</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>400</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2"/>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>基装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尾款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,14 @@
   </si>
   <si>
     <t>蹲便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -569,11 +573,11 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -593,13 +597,16 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,14 +617,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2">
+      <c r="G2" s="1"/>
+      <c r="H2" s="2">
         <v>10150</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -628,14 +636,15 @@
       <c r="F3" s="4">
         <v>4429</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>1500</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
         <v>2929</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,16 +657,17 @@
       <c r="F4" s="4">
         <v>3340</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1500</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1">
+    <row r="5" spans="1:9" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -668,12 +678,13 @@
       <c r="F5" s="4">
         <v>3113</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1000</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -686,12 +697,13 @@
       <c r="F6" s="1">
         <v>1500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>350</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -704,14 +716,15 @@
       <c r="F7" s="4">
         <v>9162</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <v>9162</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -722,14 +735,15 @@
       <c r="F8" s="4">
         <v>589</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5">
         <v>589</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -738,12 +752,13 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7">
+      <c r="G9" s="1"/>
+      <c r="H9" s="7">
         <v>2749</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,14 +769,15 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="2">
         <v>218</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -770,12 +786,13 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="5">
+      <c r="G11" s="4"/>
+      <c r="H11" s="5">
         <v>1300</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -786,12 +803,13 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5">
+      <c r="G12" s="4"/>
+      <c r="H12" s="5">
         <v>120</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,12 +822,13 @@
       <c r="F13" s="1">
         <v>5850</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1"/>
+      <c r="H13" s="2">
         <v>500</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,14 +841,17 @@
       <c r="F14" s="1">
         <v>12725</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>500</v>
       </c>
       <c r="H14" s="2">
+        <v>9725</v>
+      </c>
+      <c r="I14" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,12 +862,13 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>500</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,10 +879,11 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -872,10 +896,11 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -886,10 +911,11 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -900,10 +926,11 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,12 +941,13 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -930,12 +958,13 @@
       <c r="F21" s="4">
         <v>300</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4"/>
+      <c r="H21" s="5">
         <v>300</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -946,12 +975,13 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -962,10 +992,11 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -978,10 +1009,11 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" customHeight="1">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -990,14 +1022,15 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
         <v>500</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>130</v>
@@ -1012,10 +1045,11 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1026,10 +1060,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1038,10 +1073,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1052,14 +1088,15 @@
       <c r="F29" s="5">
         <v>54</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <v>54</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1070,10 +1107,11 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1084,10 +1122,11 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>4800</v>
@@ -1101,11 +1140,14 @@
         <v>4800</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="2">
+        <v>4800</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>140</v>
@@ -1120,10 +1162,11 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1134,12 +1177,13 @@
       <c r="F34" s="5">
         <v>400</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
         <v>400</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1147,9 +1191,13 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="2">
+        <f>SUM(H2:H34)</f>
+        <v>40567</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1158,8 +1206,9 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1168,8 +1217,9 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1178,8 +1228,9 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1188,6 +1239,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>基装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -577,7 +581,7 @@
     <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -605,8 +609,11 @@
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +629,9 @@
         <v>10150</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -643,8 +651,11 @@
       <c r="I3" s="5">
         <v>2929</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1">
+      <c r="J3" s="5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -664,8 +675,9 @@
       <c r="I4" s="5">
         <v>2040</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -683,8 +695,11 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,8 +717,9 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -721,8 +737,9 @@
         <v>9162</v>
       </c>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -740,8 +757,9 @@
         <v>589</v>
       </c>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -757,8 +775,9 @@
         <v>2749</v>
       </c>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +793,9 @@
         <v>218</v>
       </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -785,14 +805,19 @@
         <v>6300</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>6300</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
         <v>1300</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1">
+      <c r="I11" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -808,8 +833,9 @@
         <v>120</v>
       </c>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,9 +852,12 @@
       <c r="H13" s="2">
         <v>500</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +879,9 @@
       <c r="I14" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,8 +897,9 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -882,8 +913,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,11 +928,14 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>200</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,8 +949,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -929,8 +965,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,8 +981,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -963,23 +1001,27 @@
         <v>300</v>
       </c>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>500</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -993,8 +1035,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1010,8 +1053,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="30.75" customHeight="1">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1027,8 +1071,9 @@
         <v>500</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1042,12 +1087,17 @@
         <v>1000</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2">
+        <v>1140</v>
+      </c>
+      <c r="G26" s="2">
+        <v>540</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1061,8 +1111,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1074,8 +1125,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1093,8 +1145,9 @@
         <v>54</v>
       </c>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1108,8 +1161,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1123,8 +1177,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1144,8 +1199,9 @@
         <v>4800</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1163,8 +1219,9 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" s="6" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1182,8 +1239,9 @@
         <v>400</v>
       </c>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1191,13 +1249,12 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <f>SUM(H2:H34)</f>
-        <v>40567</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1207,8 +1264,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1218,8 +1276,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1230,7 +1289,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>基装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,59 +134,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业装修费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸和厨卫灯以及厨房风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房挂钩之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业装修费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹲便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +284,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,7 +593,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -581,7 +605,7 @@
     <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -601,19 +625,22 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,80 +653,90 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2">
-        <v>10150</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>10200</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7100</v>
+      </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1">
+      <c r="K2" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
-        <v>4429</v>
+        <v>3596</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>4429</v>
+        <v>3113</v>
       </c>
       <c r="G3" s="4">
-        <v>1500</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>2929</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2113</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1">
+        <v>483</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5">
-        <v>3340</v>
+        <v>5158</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>3340</v>
+        <v>4429</v>
       </c>
       <c r="G4" s="4">
         <v>1500</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5">
-        <v>2040</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1">
+        <v>2929</v>
+      </c>
+      <c r="J4" s="5">
+        <v>729</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
-        <v>3113</v>
+        <v>3340</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <v>3113</v>
+        <v>3340</v>
       </c>
       <c r="G5" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="5">
+        <v>2040</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,8 +755,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -738,10 +776,11 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -758,10 +797,11 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -776,8 +816,9 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,10 +835,11 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -816,26 +858,28 @@
         <v>5000</v>
       </c>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,16 +892,21 @@
       <c r="F13" s="1">
         <v>5850</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>500</v>
+      </c>
       <c r="H13" s="2">
-        <v>500</v>
+        <v>4150</v>
       </c>
       <c r="I13" s="2">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +929,9 @@
         <v>2500</v>
       </c>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,8 +948,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,8 +965,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,8 +986,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +1003,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -961,13 +1015,18 @@
         <v>200</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>175</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>175</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,10 +1041,11 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1002,8 +1062,9 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1081,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1036,8 +1098,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1054,8 +1117,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="30.75" customHeight="1">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1072,8 +1136,9 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1096,8 +1161,9 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1112,22 +1178,30 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>96</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1146,26 +1220,32 @@
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>260</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>260</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1178,10 +1258,11 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>4800</v>
@@ -1200,10 +1281,11 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>140</v>
@@ -1220,10 +1302,11 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" s="6" customFormat="1">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1240,31 +1323,49 @@
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="D35" s="9">
+        <v>701</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>701</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>701</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>281</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>281</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>281</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2"/>
@@ -1277,6 +1378,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1012,7 +1012,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1126,16 +1126,20 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <v>1369</v>
+        <v>1655</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="G25" s="2">
         <v>500</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>980</v>
+      </c>
+      <c r="J25" s="2">
+        <v>175</v>
+      </c>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11">

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>基装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝贴脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a21f2.7918495.1000002.1.tIHhJM&amp;id=522170424952</t>
+  </si>
+  <si>
+    <t>射灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -995,12 +1011,14 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>3080</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="9"/>
@@ -1372,20 +1390,34 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>120</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2">
+        <v>120</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>120</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1405,6 +1437,14 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -213,7 +213,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯带</t>
+    <t>灯带及补的开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +609,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -674,7 +674,9 @@
       <c r="I2" s="2">
         <v>7100</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
       <c r="K2" s="9">
         <v>3000</v>
       </c>
@@ -1420,11 +1422,17 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>729</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2">
+        <v>729</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>729</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:11">
@@ -1437,6 +1445,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -994,15 +994,19 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2">
-        <v>800</v>
+        <v>1076</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1076</v>
+      </c>
       <c r="G17" s="1">
         <v>200</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>876</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="9"/>
     </row>

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,6 +318,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -761,11 +770,11 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="G6" s="1">
         <v>350</v>
@@ -773,7 +782,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>1180</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
@@ -1057,12 +1068,16 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>599</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>599</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
@@ -1105,7 +1120,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9">
+        <v>900</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1114,12 +1131,16 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>2776</v>
+        <v>2170</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>2170</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>2170</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
@@ -1177,7 +1198,7 @@
         <v>11.5</v>
       </c>
       <c r="D26" s="2">
-        <v>1000</v>
+        <v>1140</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -1187,7 +1208,9 @@
         <v>540</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>600</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
     </row>
@@ -1338,8 +1361,8 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <v>400</v>
+      <c r="D34" s="14">
+        <v>1400</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">

--- a/装修已花费.xlsx
+++ b/装修已花费.xlsx
@@ -15,8 +15,177 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>litao</author>
+  </authors>
+  <commentList>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>litao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>尾款已付</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>litao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包含装纸盒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>25</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>），以及烟道和止口阀（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>litao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>浴霸和风扇安装费用</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>基装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,7 +287,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水龙头</t>
+    <t>勾缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗大理石台面和门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业装修费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸和厨卫灯以及厨房风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房挂钩之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝贴脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a21f2.7918495.1000002.1.tIHhJM&amp;id=522170424952</t>
+  </si>
+  <si>
+    <t>射灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带及补的开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙头加水管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,94 +386,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勾缝剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘窗大理石台面和门槛石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业装修费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹲便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸和厨卫灯以及厨房风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房挂钩之类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝贴脚线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a21f2.7918495.1000002.1.tIHhJM&amp;id=522170424952</t>
-  </si>
-  <si>
-    <t>射灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯带及补的开关</t>
+    <t>石膏粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +430,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
@@ -283,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,8 +512,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -650,19 +847,19 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -692,7 +889,7 @@
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -717,7 +914,7 @@
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -809,7 +1006,7 @@
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -830,7 +1027,7 @@
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -868,7 +1065,7 @@
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -986,7 +1183,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2">
-        <v>2400</v>
+        <v>2788</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1084,7 +1281,7 @@
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1166,7 +1363,7 @@
     </row>
     <row r="25" spans="1:11" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1216,58 +1413,68 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>600</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>231</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>144</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>144</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
       <c r="D29" s="5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1275,7 +1482,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1296,7 +1503,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1313,7 +1520,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>4800</v>
@@ -1336,7 +1543,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>140</v>
@@ -1357,12 +1564,12 @@
     </row>
     <row r="34" spans="1:11" s="6" customFormat="1">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="14">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
@@ -1378,28 +1585,30 @@
     </row>
     <row r="35" spans="1:11" ht="28.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9">
-        <v>701</v>
+      <c r="D35" s="15">
+        <v>771</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9">
         <v>701</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <v>70</v>
+      </c>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1420,7 +1629,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1445,7 +1654,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1463,29 +1672,45 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>54</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>54</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>54</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
